--- a/template.xlsx
+++ b/template.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="従業員" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="部署" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="役職" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="従業員" sheetId="1" r:id="rId3" state="visible"/>
+    <sheet name="部署" sheetId="2" r:id="rId4" state="visible"/>
+    <sheet name="役職" sheetId="3" r:id="rId5" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">社員番号</t>
   </si>
@@ -172,12 +172,18 @@
   </si>
   <si>
     <t xml:space="preserve">DevOpsエンジニア </t>
+  </si>
+  <si>
+    <t>営業部</t>
+  </si>
+  <si>
+    <t>開発部</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -205,7 +211,7 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
@@ -213,7 +219,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP"/>
@@ -242,7 +248,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b val="1"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
@@ -292,14 +298,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -309,8 +315,8 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -334,68 +340,68 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="right" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="right" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -512,14 +518,14 @@
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0"/>
+        <a:ea typeface="Arial" pitchFamily="0"/>
+        <a:cs typeface="Arial" pitchFamily="0"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0"/>
+        <a:ea typeface="Arial" pitchFamily="0"/>
+        <a:cs typeface="Arial" pitchFamily="0"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -638,6 +644,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1966,144 +1974,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col customWidth="true" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.8">
       <c r="A2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8">
       <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="13.8">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="15.75" customHeight="true">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="15.75" customHeight="true">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15.75" customHeight="true">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15.75" customHeight="true">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15.75" customHeight="true">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="15.75" customHeight="true">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="15.75" customHeight="true">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="15.75" customHeight="true">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="15.75" customHeight="true">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="15.75" customHeight="true">
       <c r="A14" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLinesSet="true"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col customWidth="true" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.8">
       <c r="A2" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="12.8">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="15.75" customHeight="true">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="15.75" customHeight="true">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15.75" customHeight="true">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15.75" customHeight="true">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15.75" customHeight="true">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="15.75" customHeight="true">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="15.75" customHeight="true">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="15.75" customHeight="true">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLinesSet="true"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>